--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PowerUps" sheetId="8" r:id="rId1"/>
     <sheet name="Weapons" sheetId="3" r:id="rId2"/>
     <sheet name="Skins" sheetId="4" r:id="rId3"/>
     <sheet name="Enemy" sheetId="5" r:id="rId4"/>
-    <sheet name="Art" sheetId="11" r:id="rId5"/>
-    <sheet name="Need List" sheetId="9" r:id="rId6"/>
-    <sheet name="Sound" sheetId="10" r:id="rId7"/>
-    <sheet name="Bosses" sheetId="6" r:id="rId8"/>
-    <sheet name="Planets" sheetId="7" r:id="rId9"/>
+    <sheet name="Tasks" sheetId="11" r:id="rId5"/>
+    <sheet name="Game Analytics" sheetId="12" r:id="rId6"/>
+    <sheet name="Need List" sheetId="9" r:id="rId7"/>
+    <sheet name="Sound" sheetId="10" r:id="rId8"/>
+    <sheet name="Bosses" sheetId="6" r:id="rId9"/>
+    <sheet name="Planets" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>Cost</t>
   </si>
@@ -292,17 +293,114 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Usage</t>
-  </si>
-  <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>5X Weapons</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>5 Weapon Of Moon Planet</t>
+  </si>
+  <si>
+    <t>Design
+Art
+Programming 
+Sound</t>
+  </si>
+  <si>
+    <t>1xPlanet</t>
+  </si>
+  <si>
+    <t>Designing Of The First World Of Level Mode</t>
+  </si>
+  <si>
+    <t>10x Level Of Planet One</t>
+  </si>
+  <si>
+    <t>Design 
+Art</t>
+  </si>
+  <si>
+    <t>3 or 4 x Skins</t>
+  </si>
+  <si>
+    <t>At least one of them must be for First Planet</t>
+  </si>
+  <si>
+    <t>2X Enemy</t>
+  </si>
+  <si>
+    <t>First World Boss</t>
+  </si>
+  <si>
+    <t>VFX Design</t>
+  </si>
+  <si>
+    <t>Art
+Design</t>
+  </si>
+  <si>
+    <t>Monitize</t>
+  </si>
+  <si>
+    <t>Design 
+Marketing</t>
+  </si>
+  <si>
+    <t>Skin System</t>
+  </si>
+  <si>
+    <t>UI&amp;UX</t>
+  </si>
+  <si>
+    <t>Desgin 
+Art</t>
+  </si>
+  <si>
+    <t>Arena Mode Design</t>
+  </si>
+  <si>
+    <t>Game Icon &amp; Notification Icon</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>Complete Tut</t>
+  </si>
+  <si>
+    <t>SignedUp</t>
+  </si>
+  <si>
+    <t>(PowerUpName)Bought</t>
+  </si>
+  <si>
+    <t>LevelProggresion</t>
+  </si>
+  <si>
+    <t>Level Amount</t>
+  </si>
+  <si>
+    <t>Server Communication</t>
+  </si>
+  <si>
+    <t>PowerUp System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,16 +408,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,23 +474,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,7 +829,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,95 +837,100 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -754,6 +963,96 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,36 +1064,38 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -804,7 +1105,7 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -824,7 +1125,7 @@
       <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1060,33 +1361,34 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1382,32 +1684,35 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1501,27 +1806,243 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,242 +2051,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,10 +2104,254 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,18 +2361,18 @@
     <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -1863,133 +2437,6 @@
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,87 +2445,128 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PowerUps" sheetId="8" r:id="rId1"/>
@@ -12,11 +12,14 @@
     <sheet name="Skins" sheetId="4" r:id="rId3"/>
     <sheet name="Enemy" sheetId="5" r:id="rId4"/>
     <sheet name="Tasks" sheetId="11" r:id="rId5"/>
-    <sheet name="Game Analytics" sheetId="12" r:id="rId6"/>
-    <sheet name="Need List" sheetId="9" r:id="rId7"/>
-    <sheet name="Sound" sheetId="10" r:id="rId8"/>
-    <sheet name="Bosses" sheetId="6" r:id="rId9"/>
-    <sheet name="Planets" sheetId="7" r:id="rId10"/>
+    <sheet name="Design List" sheetId="14" r:id="rId6"/>
+    <sheet name="Programming List" sheetId="15" r:id="rId7"/>
+    <sheet name="Art List" sheetId="13" r:id="rId8"/>
+    <sheet name="Sound List" sheetId="10" r:id="rId9"/>
+    <sheet name="Game Analytics" sheetId="12" r:id="rId10"/>
+    <sheet name="Need List" sheetId="9" r:id="rId11"/>
+    <sheet name="Bosses" sheetId="6" r:id="rId12"/>
+    <sheet name="Planets" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
   <si>
     <t>Cost</t>
   </si>
@@ -48,61 +51,13 @@
     <t>50 C</t>
   </si>
   <si>
-    <t>DoubleCoin</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Rampage</t>
-  </si>
-  <si>
-    <t>UnLimitedAmmo For Period Of Time</t>
-  </si>
-  <si>
-    <t>Double The Coin For 10 Enemys</t>
-  </si>
-  <si>
-    <t>100 C</t>
-  </si>
-  <si>
-    <t>Double XP</t>
-  </si>
-  <si>
-    <t>Double The XP point For 3 Match</t>
-  </si>
-  <si>
-    <t>50 NC</t>
-  </si>
-  <si>
-    <t>Imortality</t>
-  </si>
-  <si>
-    <t>Become Imortal for Prtiod Of Time</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Accepted?</t>
   </si>
   <si>
-    <t>10 Enemies</t>
-  </si>
-  <si>
-    <t>15s</t>
-  </si>
-  <si>
     <t>10s</t>
-  </si>
-  <si>
-    <t>3 Matches</t>
-  </si>
-  <si>
-    <t>20s</t>
-  </si>
-  <si>
-    <t>150 C</t>
   </si>
   <si>
     <t>Requarement</t>
@@ -176,12 +131,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>InfinitiBullet</t>
-  </si>
-  <si>
-    <t>Infiniti Bullet For period of time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Department </t>
   </si>
   <si>
@@ -252,9 +201,6 @@
   </si>
   <si>
     <t>SFX_(EnemyName)_Die</t>
-  </si>
-  <si>
-    <t>SFX_EnemyEntrance</t>
   </si>
   <si>
     <t>SFX_AmmoGrab</t>
@@ -394,13 +340,212 @@
   </si>
   <si>
     <t>PowerUp System</t>
+  </si>
+  <si>
+    <t>PoweruUpAmount</t>
+  </si>
+  <si>
+    <t>Power Up Amount decrease and increase</t>
+  </si>
+  <si>
+    <t>Hp Pack</t>
+  </si>
+  <si>
+    <t>Add Hp Pack GO to Randomly Instatiate in Game</t>
+  </si>
+  <si>
+    <t>Design
+Programming</t>
+  </si>
+  <si>
+    <t>Server Communication_UML</t>
+  </si>
+  <si>
+    <t>PowerUps_Icon</t>
+  </si>
+  <si>
+    <t>Moon_Weapons</t>
+  </si>
+  <si>
+    <t>Moon_Planet</t>
+  </si>
+  <si>
+    <t>Moon_Enemies</t>
+  </si>
+  <si>
+    <t>Moon_Skins</t>
+  </si>
+  <si>
+    <t>Vfxs_Design</t>
+  </si>
+  <si>
+    <t>UI &amp; UX(WIP)</t>
+  </si>
+  <si>
+    <t>Game_Icon</t>
+  </si>
+  <si>
+    <t>Game_Icon_Norification</t>
+  </si>
+  <si>
+    <t>Hp_Pack_Model</t>
+  </si>
+  <si>
+    <t>Planet_Shop</t>
+  </si>
+  <si>
+    <t>Planet_Arena</t>
+  </si>
+  <si>
+    <t>Planet_Mars</t>
+  </si>
+  <si>
+    <t>Random_Box_Model</t>
+  </si>
+  <si>
+    <t>Ammo_Icon</t>
+  </si>
+  <si>
+    <t>Hp_Icon</t>
+  </si>
+  <si>
+    <t>Regenerate_Icon</t>
+  </si>
+  <si>
+    <t>Damage_Icon</t>
+  </si>
+  <si>
+    <t>LevelMode_Victory_Panel</t>
+  </si>
+  <si>
+    <t>LevelMode_Defeat_Panel</t>
+  </si>
+  <si>
+    <t>Nira_Coin_Model</t>
+  </si>
+  <si>
+    <t>Coin_Model</t>
+  </si>
+  <si>
+    <t>Energy_Model</t>
+  </si>
+  <si>
+    <t>Video_Energy_Pack</t>
+  </si>
+  <si>
+    <t>Full_Energy_Pack</t>
+  </si>
+  <si>
+    <t>Loading_Model</t>
+  </si>
+  <si>
+    <t>A Character or A sign Which rotate for showing the loading Progress</t>
+  </si>
+  <si>
+    <t>Loading_Screen</t>
+  </si>
+  <si>
+    <t>Reward Panel_UI</t>
+  </si>
+  <si>
+    <t>Alert_Panel_UI</t>
+  </si>
+  <si>
+    <t>Ok_Panel_UI</t>
+  </si>
+  <si>
+    <t>Neutral_Panel_UI</t>
+  </si>
+  <si>
+    <t>Character_Concept</t>
+  </si>
+  <si>
+    <t>Enemy_Concept</t>
+  </si>
+  <si>
+    <t>Weapons(at least *3)_Concept</t>
+  </si>
+  <si>
+    <t>For advertise - all of them togheter in on page</t>
+  </si>
+  <si>
+    <t>Planet_Concept</t>
+  </si>
+  <si>
+    <t>PowerUps_Concept</t>
+  </si>
+  <si>
+    <t>Moon And Mars -For advertise</t>
+  </si>
+  <si>
+    <t>At least 3 -For advertise</t>
+  </si>
+  <si>
+    <t>For advertise -at least 2 skins in one page</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>JetPack</t>
+  </si>
+  <si>
+    <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>Second_Chance</t>
+  </si>
+  <si>
+    <t>Give Second Chance to Player with chance of  10% to revive free</t>
+  </si>
+  <si>
+    <t>Item_Spring_Icon</t>
+  </si>
+  <si>
+    <t>Item_BowlingBomb_Icon</t>
+  </si>
+  <si>
+    <t>Item_DeffendWall_Icon</t>
+  </si>
+  <si>
+    <t>Item_Mine_Icon</t>
+  </si>
+  <si>
+    <t>Item_IceGround_Icon</t>
+  </si>
+  <si>
+    <t>Item_SprikeWall_Icon</t>
+  </si>
+  <si>
+    <t>Item_AstroRain_Icon</t>
+  </si>
+  <si>
+    <t>SFX_(EnemyName)_EnemyEntrance</t>
+  </si>
+  <si>
+    <t>SFX_(EnemyName)_Walk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SFX_(ItemName)_ActivateSound</t>
+  </si>
+  <si>
+    <t>SFX_(PowerUp)_ActivateSound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +582,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -466,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -483,15 +643,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyFont="0" applyFill="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,56 +690,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="7"/>
+    <cellStyle name="Total" xfId="6" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="5" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,143 +1046,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,6 +1123,433 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -983,15 +1563,15 @@
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>116</v>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1075,64 +1655,64 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>38</v>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,55 +1951,55 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>38</v>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1695,26 +2275,26 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>86</v>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -1723,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1731,7 +2311,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1740,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1748,16 +2328,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1806,7 +2386,734 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" s="19" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="29">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="29">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1814,759 +3121,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PowerUps" sheetId="8" r:id="rId1"/>
     <sheet name="Weapons" sheetId="3" r:id="rId2"/>
-    <sheet name="Skins" sheetId="4" r:id="rId3"/>
-    <sheet name="Enemy" sheetId="5" r:id="rId4"/>
-    <sheet name="Tasks" sheetId="11" r:id="rId5"/>
-    <sheet name="Design List" sheetId="14" r:id="rId6"/>
-    <sheet name="Programming List" sheetId="15" r:id="rId7"/>
-    <sheet name="Art List" sheetId="13" r:id="rId8"/>
-    <sheet name="Sound List" sheetId="10" r:id="rId9"/>
-    <sheet name="Game Analytics" sheetId="12" r:id="rId10"/>
-    <sheet name="Need List" sheetId="9" r:id="rId11"/>
-    <sheet name="Bosses" sheetId="6" r:id="rId12"/>
-    <sheet name="Planets" sheetId="7" r:id="rId13"/>
+    <sheet name="Items" sheetId="16" r:id="rId3"/>
+    <sheet name="Skins" sheetId="4" r:id="rId4"/>
+    <sheet name="Enemy" sheetId="5" r:id="rId5"/>
+    <sheet name="Tasks" sheetId="11" r:id="rId6"/>
+    <sheet name="Design List" sheetId="14" r:id="rId7"/>
+    <sheet name="Programming List" sheetId="15" r:id="rId8"/>
+    <sheet name="Art List" sheetId="13" r:id="rId9"/>
+    <sheet name="Sound List" sheetId="10" r:id="rId10"/>
+    <sheet name="Game Analytics" sheetId="12" r:id="rId11"/>
+    <sheet name="Need List" sheetId="9" r:id="rId12"/>
+    <sheet name="Bosses" sheetId="6" r:id="rId13"/>
+    <sheet name="Planets" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="169">
   <si>
     <t>Cost</t>
   </si>
@@ -48,16 +49,7 @@
     <t>Double The Damage For Period Of Time</t>
   </si>
   <si>
-    <t>50 C</t>
-  </si>
-  <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Accepted?</t>
-  </si>
-  <si>
-    <t>10s</t>
   </si>
   <si>
     <t>Requarement</t>
@@ -182,12 +174,6 @@
     <t>Sound Of UI Button</t>
   </si>
   <si>
-    <t>SFX_Coin_Swipe</t>
-  </si>
-  <si>
-    <t>Sound Of Coin Brust</t>
-  </si>
-  <si>
     <t>Accepted</t>
   </si>
   <si>
@@ -198,9 +184,6 @@
   </si>
   <si>
     <t>SFX_(GunName)_Shoot</t>
-  </si>
-  <si>
-    <t>SFX_(EnemyName)_Die</t>
   </si>
   <si>
     <t>SFX_AmmoGrab</t>
@@ -487,18 +470,9 @@
     <t>Shield</t>
   </si>
   <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>Bomb</t>
-  </si>
-  <si>
     <t>JetPack</t>
   </si>
   <si>
-    <t>SpeedUp</t>
-  </si>
-  <si>
     <t>Second_Chance</t>
   </si>
   <si>
@@ -529,23 +503,59 @@
     <t>SFX_(EnemyName)_EnemyEntrance</t>
   </si>
   <si>
-    <t>SFX_(EnemyName)_Walk</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>SFX_(ItemName)_ActivateSound</t>
   </si>
   <si>
-    <t>SFX_(PowerUp)_ActivateSound</t>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>SFX_(EnemyName)_Death</t>
+  </si>
+  <si>
+    <t>Need Changes</t>
+  </si>
+  <si>
+    <t>SFX_(PowerUp)</t>
+  </si>
+  <si>
+    <t>SFX_PowerUp_ActivateSound</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>BGM_SpaceBackGround</t>
+  </si>
+  <si>
+    <t>SFX_LootBox</t>
+  </si>
+  <si>
+    <t>SFX_Enemy_Planet_Hited</t>
+  </si>
+  <si>
+    <t>Level Mode Scene</t>
+  </si>
+  <si>
+    <t>SFX_Planets_Swipe</t>
+  </si>
+  <si>
+    <t>SFX_Fuel_Reduce</t>
+  </si>
+  <si>
+    <t>Shop Scene</t>
+  </si>
+  <si>
+    <t>SFX_Buy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +602,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -682,7 +699,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,6 +775,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1046,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,14 +1089,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1086,35 +1101,23 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1123,6 +1126,181 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1138,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1152,22 +1330,22 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1192,57 +1370,57 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1250,23 +1428,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1419,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1439,13 +1617,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1549,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1568,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1660,59 +1838,59 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,6 +2115,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -1956,50 +2146,50 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,12 +2449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,21 +2470,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -2303,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2311,7 +2501,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -2320,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2328,16 +2518,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2384,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -2407,30 +2597,30 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
@@ -2440,13 +2630,13 @@
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -2456,11 +2646,11 @@
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -2470,13 +2660,13 @@
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
@@ -2486,11 +2676,11 @@
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -2500,11 +2690,11 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
@@ -2514,11 +2704,11 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D8" s="14">
         <v>2</v>
@@ -2528,11 +2718,11 @@
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2542,11 +2732,11 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
@@ -2556,11 +2746,11 @@
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2570,11 +2760,11 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="14">
         <v>3</v>
@@ -2584,11 +2774,11 @@
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10">
         <v>4</v>
@@ -2598,11 +2788,11 @@
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="12">
         <v>3</v>
@@ -2612,11 +2802,11 @@
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -2626,13 +2816,13 @@
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -2642,13 +2832,13 @@
     </row>
     <row r="17" spans="1:6" s="19" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D17" s="17">
         <v>1.5</v>
@@ -2658,11 +2848,11 @@
     </row>
     <row r="18" spans="1:6" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D18" s="26">
         <v>1.5</v>
@@ -2676,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2691,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2723,18 +2913,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -2762,15 +2952,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>
@@ -2778,7 +2968,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C3" s="29">
         <v>2</v>
@@ -2786,7 +2976,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
@@ -2794,7 +2984,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C5" s="29">
         <v>2</v>
@@ -2802,7 +2992,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="29">
         <v>1.9</v>
@@ -2810,7 +3000,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" s="29">
         <v>1.3</v>
@@ -2818,7 +3008,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C8" s="29">
         <v>1.1000000000000001</v>
@@ -2826,7 +3016,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" s="29">
         <v>1.2</v>
@@ -2834,7 +3024,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10" s="29">
         <v>1.35</v>
@@ -2842,7 +3032,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C11" s="29">
         <v>1.7</v>
@@ -2850,7 +3040,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C12" s="29">
         <v>2</v>
@@ -2858,7 +3048,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C13" s="29">
         <v>3</v>
@@ -2866,7 +3056,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C14" s="29">
         <v>3</v>
@@ -2874,7 +3064,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C15" s="29">
         <v>1.25</v>
@@ -2882,7 +3072,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C16" s="29">
         <v>2</v>
@@ -2890,7 +3080,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" s="29">
         <v>2</v>
@@ -2898,7 +3088,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="29">
         <v>2</v>
@@ -2906,7 +3096,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" s="29">
         <v>2</v>
@@ -2914,7 +3104,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" s="29">
         <v>1.75</v>
@@ -2922,7 +3112,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C21" s="29">
         <v>1.75</v>
@@ -2930,7 +3120,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C22" s="29">
         <v>2</v>
@@ -2938,7 +3128,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" s="29">
         <v>1.25</v>
@@ -2946,7 +3136,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C24" s="29">
         <v>2</v>
@@ -2954,7 +3144,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
@@ -2962,7 +3152,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C26" s="29">
         <v>3</v>
@@ -2970,7 +3160,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C27" s="29">
         <v>3</v>
@@ -2978,10 +3168,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C28" s="29">
         <v>3</v>
@@ -2989,7 +3179,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C29" s="29">
         <v>2</v>
@@ -2997,7 +3187,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C30" s="29">
         <v>3</v>
@@ -3005,7 +3195,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C31" s="29">
         <v>3</v>
@@ -3013,7 +3203,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C32" s="29">
         <v>3</v>
@@ -3021,10 +3211,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C33" s="29">
         <v>1.4</v>
@@ -3032,7 +3222,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C34" s="29">
         <v>1.45</v>
@@ -3040,10 +3230,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C35" s="29">
         <v>1.5</v>
@@ -3051,10 +3241,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C36" s="29">
         <v>1.55</v>
@@ -3062,10 +3252,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C37" s="29">
         <v>1.6</v>
@@ -3073,156 +3263,37 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
